--- a/export_dv.xlsx
+++ b/export_dv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Appendix 32</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>Batangas</t>
+    <t>Riverview Resort and Conference Center</t>
   </si>
   <si>
     <t xml:space="preserve">TIN/Employee No.: </t>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">ORS/BURS No.: </t>
   </si>
   <si>
+    <t>SR-100-TEST-001</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -100,10 +103,10 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>CHIEF, FAD</t>
+    <t>ARD NOEL R. BARTOLABAC</t>
+  </si>
+  <si>
+    <t>CHIEF, ORD</t>
   </si>
   <si>
     <t>B.</t>
@@ -2906,8 +2909,8 @@
       <c r="Y12" s="221"/>
       <c r="Z12" s="221"/>
       <c r="AA12" s="222"/>
-      <c r="AB12" s="318">
-        <v>123</v>
+      <c r="AB12" s="318" t="s">
+        <v>16</v>
       </c>
       <c r="AC12" s="318"/>
       <c r="AD12" s="318"/>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="13" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A13" s="212" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="213"/>
       <c r="C13" s="214"/>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="15" spans="1:41" customHeight="1" ht="25.2" s="84" customFormat="1">
       <c r="A15" s="223" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="224"/>
       <c r="C15" s="224"/>
@@ -3012,21 +3015,21 @@
       <c r="P15" s="224"/>
       <c r="Q15" s="225"/>
       <c r="R15" s="226" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S15" s="227"/>
       <c r="T15" s="227"/>
       <c r="U15" s="227"/>
       <c r="V15" s="228"/>
       <c r="W15" s="226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X15" s="224"/>
       <c r="Y15" s="224"/>
       <c r="Z15" s="224"/>
       <c r="AA15" s="225"/>
       <c r="AB15" s="226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC15" s="224"/>
       <c r="AD15" s="224"/>
@@ -3038,7 +3041,7 @@
     <row r="16" spans="1:41" customHeight="1" ht="78" s="84" customFormat="1">
       <c r="A16" s="102"/>
       <c r="B16" s="307" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="307"/>
       <c r="D16" s="307"/>
@@ -3066,7 +3069,7 @@
       <c r="Z16" s="84"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="304">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="AC16" s="305"/>
       <c r="AD16" s="305"/>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="20" spans="1:41" customHeight="1" ht="13.95" s="84" customFormat="1">
       <c r="A20" s="234" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="235"/>
       <c r="C20" s="235"/>
@@ -3228,10 +3231,10 @@
     </row>
     <row r="21" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
       <c r="A21" s="107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="209" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="209"/>
       <c r="D21" s="209"/>
@@ -3273,7 +3276,7 @@
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
       <c r="E22" s="92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="92"/>
       <c r="G22" s="92"/>
@@ -3309,7 +3312,7 @@
     <row r="23" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A23" s="108"/>
       <c r="B23" s="200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="201"/>
       <c r="D23" s="201"/>
@@ -3348,7 +3351,7 @@
     <row r="24" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A24" s="108"/>
       <c r="B24" s="202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="202"/>
       <c r="D24" s="202"/>
@@ -3460,10 +3463,10 @@
     </row>
     <row r="27" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
       <c r="A27" s="115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="117"/>
       <c r="D27" s="117"/>
@@ -3501,7 +3504,7 @@
     </row>
     <row r="28" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
       <c r="A28" s="204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="205"/>
       <c r="C28" s="205"/>
@@ -3521,21 +3524,21 @@
       <c r="Q28" s="205"/>
       <c r="R28" s="205"/>
       <c r="S28" s="205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" s="205"/>
       <c r="U28" s="205"/>
       <c r="V28" s="205"/>
       <c r="W28" s="205"/>
       <c r="X28" s="206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y28" s="206"/>
       <c r="Z28" s="206"/>
       <c r="AA28" s="206"/>
       <c r="AB28" s="206"/>
       <c r="AC28" s="207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD28" s="207"/>
       <c r="AE28" s="207"/>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="32" spans="1:41" customHeight="1" ht="12" s="84" customFormat="1">
       <c r="A32" s="129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="130"/>
       <c r="D32" s="130"/>
@@ -3676,10 +3679,10 @@
       <c r="Q32" s="131"/>
       <c r="R32" s="132"/>
       <c r="S32" s="129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T32" s="192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U32" s="192"/>
       <c r="V32" s="192"/>
@@ -3700,7 +3703,7 @@
       <c r="A33" s="113"/>
       <c r="B33" s="135"/>
       <c r="C33" s="88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" s="88"/>
       <c r="E33" s="88"/>
@@ -3774,7 +3777,7 @@
       <c r="A35" s="113"/>
       <c r="B35" s="93"/>
       <c r="C35" s="88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="88"/>
       <c r="E35" s="88"/>
@@ -3848,10 +3851,10 @@
       <c r="A37" s="113"/>
       <c r="B37" s="93"/>
       <c r="C37" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
@@ -3888,7 +3891,7 @@
       <c r="A38" s="113"/>
       <c r="B38" s="88"/>
       <c r="C38" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="88"/>
       <c r="E38" s="88"/>
@@ -3924,7 +3927,7 @@
     </row>
     <row r="39" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A39" s="163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="188"/>
       <c r="C39" s="188"/>
@@ -3944,7 +3947,7 @@
       <c r="Q39" s="191"/>
       <c r="R39" s="191"/>
       <c r="S39" s="163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T39" s="163"/>
       <c r="U39" s="163"/>
@@ -4000,13 +4003,13 @@
     </row>
     <row r="41" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A41" s="163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="188"/>
       <c r="C41" s="188"/>
       <c r="D41" s="188"/>
       <c r="E41" s="189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="189"/>
       <c r="G41" s="189"/>
@@ -4022,13 +4025,13 @@
       <c r="Q41" s="189"/>
       <c r="R41" s="189"/>
       <c r="S41" s="163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T41" s="163"/>
       <c r="U41" s="163"/>
       <c r="V41" s="163"/>
       <c r="W41" s="190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X41" s="190"/>
       <c r="Y41" s="190"/>
@@ -4080,13 +4083,13 @@
     </row>
     <row r="43" spans="1:41" customHeight="1" ht="15.6" s="84" customFormat="1">
       <c r="A43" s="163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="163"/>
       <c r="C43" s="163"/>
       <c r="D43" s="163"/>
       <c r="E43" s="163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="163"/>
       <c r="G43" s="163"/>
@@ -4102,13 +4105,13 @@
       <c r="Q43" s="163"/>
       <c r="R43" s="163"/>
       <c r="S43" s="163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T43" s="163"/>
       <c r="U43" s="163"/>
       <c r="V43" s="163"/>
       <c r="W43" s="163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X43" s="163"/>
       <c r="Y43" s="163"/>
@@ -4160,7 +4163,7 @@
     </row>
     <row r="45" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
       <c r="A45" s="163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="163"/>
       <c r="C45" s="163"/>
@@ -4180,7 +4183,7 @@
       <c r="Q45" s="191"/>
       <c r="R45" s="191"/>
       <c r="S45" s="163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" s="163"/>
       <c r="U45" s="163"/>
@@ -4236,10 +4239,10 @@
     </row>
     <row r="47" spans="1:41" customHeight="1" ht="12.75" s="84" customFormat="1">
       <c r="A47" s="149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="150"/>
       <c r="D47" s="150"/>
@@ -4267,7 +4270,7 @@
       <c r="Z47" s="150"/>
       <c r="AA47" s="151"/>
       <c r="AB47" s="152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC47" s="152"/>
       <c r="AD47" s="152"/>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="48" spans="1:41" customHeight="1" ht="13.95" s="84" customFormat="1">
       <c r="A48" s="165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="166"/>
       <c r="C48" s="166"/>
@@ -4300,7 +4303,7 @@
       <c r="Q48" s="175"/>
       <c r="R48" s="176"/>
       <c r="S48" s="180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T48" s="175"/>
       <c r="U48" s="175"/>
@@ -4356,7 +4359,7 @@
     </row>
     <row r="50" spans="1:41" customHeight="1" ht="9.6" s="84" customFormat="1">
       <c r="A50" s="181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="153"/>
       <c r="C50" s="153"/>
@@ -4378,7 +4381,7 @@
       <c r="Q50" s="186"/>
       <c r="R50" s="187"/>
       <c r="S50" s="185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" s="186"/>
       <c r="U50" s="186"/>
@@ -4389,7 +4392,7 @@
       <c r="Z50" s="186"/>
       <c r="AA50" s="187"/>
       <c r="AB50" s="141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC50" s="141"/>
       <c r="AD50" s="153"/>
@@ -4440,7 +4443,7 @@
     </row>
     <row r="52" spans="1:41" customHeight="1" ht="15">
       <c r="A52" s="160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="161"/>
       <c r="C52" s="161"/>
@@ -4614,7 +4617,7 @@
     </row>
     <row r="3" spans="1:15" customHeight="1" ht="18">
       <c r="B3" s="285" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="285"/>
       <c r="D3" s="285"/>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="18">
       <c r="B4" s="285" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="285"/>
       <c r="D4" s="285"/>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="5" spans="1:15" customHeight="1" ht="23.1">
       <c r="B5" s="286" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="286"/>
       <c r="D5" s="286"/>
@@ -4668,7 +4671,7 @@
     </row>
     <row r="6" spans="1:15" customHeight="1" ht="15.75">
       <c r="B6" s="287" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="287"/>
       <c r="D6" s="287"/>
@@ -4694,7 +4697,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="284" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" s="284"/>
       <c r="M7" s="6"/>
@@ -4712,7 +4715,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
@@ -4729,7 +4732,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="79"/>
       <c r="N9" s="80"/>
@@ -4753,33 +4756,33 @@
     </row>
     <row r="11" spans="1:15" customHeight="1" ht="38.25">
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="280" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="281"/>
       <c r="E11" s="83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="282" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="283"/>
       <c r="H11" s="282" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="283"/>
       <c r="J11" s="282" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="283"/>
       <c r="L11" s="280" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="281"/>
       <c r="N11" s="282" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O11" s="283"/>
     </row>
@@ -4804,11 +4807,11 @@
         <v>41645</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="19">
         <v>50000</v>
@@ -4830,11 +4833,11 @@
         <v>41652</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -4858,11 +4861,11 @@
         <v>41667</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -4884,11 +4887,11 @@
         <v>41670</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="35" spans="1:15" customHeight="1" ht="15.75">
       <c r="B35" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
@@ -5271,12 +5274,12 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="18" s="36" customFormat="1">
       <c r="B3" s="294" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="285"/>
       <c r="D3" s="285"/>
@@ -5294,7 +5297,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -5306,24 +5309,24 @@
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="18.75" s="36" customFormat="1">
       <c r="B5" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="H5" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="42"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="18.75" s="36" customFormat="1">
       <c r="B6" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -5335,14 +5338,14 @@
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="15.75" s="36" customFormat="1">
       <c r="B7" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="H7" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="42"/>
@@ -5361,46 +5364,46 @@
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="15.75">
       <c r="B9" s="296" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="297"/>
       <c r="D9" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="298" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="300" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="302" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" s="298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15.75">
       <c r="B10" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="54" t="s">
-        <v>94</v>
-      </c>
       <c r="F10" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="299"/>
       <c r="H10" s="301"/>
@@ -5409,28 +5412,28 @@
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="22.5">
       <c r="B11" s="73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" s="59"/>
     </row>
@@ -5536,7 +5539,7 @@
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="23.1" s="70" customFormat="1">
       <c r="B21" s="288" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="289"/>
       <c r="D21" s="289"/>
@@ -5551,28 +5554,28 @@
     <row r="22" spans="1:14">
       <c r="B22" s="37"/>
       <c r="D22" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J22" s="39"/>
       <c r="L22" s="292" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" s="37"/>
       <c r="D23" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" s="39"/>
       <c r="L23" s="292"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="293" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="37"/>
       <c r="D24" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" s="39"/>
       <c r="L24" s="292"/>
@@ -5587,7 +5590,7 @@
       <c r="A26" s="293"/>
       <c r="B26" s="37"/>
       <c r="F26" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J26" s="39"/>
       <c r="L26" s="292"/>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="14.25">
       <c r="J29" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
